--- a/ie_test-results.xlsx
+++ b/ie_test-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\anu\comp4450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AED81F-5A44-4CEE-8669-BF16058A0563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E792AB-6435-4E85-A6C8-8C826343BDB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E9B88CD1-3B0D-4A75-AE61-841D3335B013}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>bert</t>
   </si>
@@ -49,6 +49,33 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>gkr</t>
+  </si>
+  <si>
+    <t>hy-nli</t>
+  </si>
+  <si>
+    <t>523a</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>614a</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>623a</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>1958a</t>
   </si>
 </sst>
 </file>
@@ -72,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -80,12 +107,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2321462-3F7F-4639-8933-79D80AEC3C8E}">
-  <dimension ref="A1:AR7"/>
+  <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,6 +508,7 @@
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.3">
@@ -789,6 +887,1093 @@
         <v>0.84470684039087929</v>
       </c>
     </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.71230896323833104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.71045022717885098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.70095002065262202</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.70198265179677799</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.67699297810821901</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.69971086327963605</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.71334159438248601</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(D12:H12)</f>
+        <v>0.69859562164394828</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.70033044196612904</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.70342833539859495</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.70280875671210197</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.70735233374638495</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.69062370921106897</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(K12:O12)</f>
+        <v>0.70090871540685595</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0.70384138785625705</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0.69909128459314296</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0.69950433705080495</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0.71024370095001998</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0.70384138785625705</v>
+      </c>
+      <c r="W12">
+        <f>AVERAGE(R12:V12)</f>
+        <v>0.70330441966129642</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0.693515076414704</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0.69991738950846705</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0.70074349442379102</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>0.70033044196612904</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>0.70404791408508804</v>
+      </c>
+      <c r="AD12">
+        <f>AVERAGE(Y12:AC12)</f>
+        <v>0.69971086327963583</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>0.69599339116067704</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>0.705493597686906</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>0.69392812887236599</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>0.70838496489054104</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>0.70652622883106098</v>
+      </c>
+      <c r="AK12">
+        <f>AVERAGE(AF12:AJ12)</f>
+        <v>0.70206526228831023</v>
+      </c>
+      <c r="AM12" s="6">
+        <v>0.69661296984717003</v>
+      </c>
+      <c r="AN12" s="6">
+        <v>0.69785212722015699</v>
+      </c>
+      <c r="AO12" s="6">
+        <v>0.68835192069392803</v>
+      </c>
+      <c r="AP12" s="6">
+        <v>0.69434118133002798</v>
+      </c>
+      <c r="AQ12" s="6">
+        <v>0.69578686493184605</v>
+      </c>
+      <c r="AR12">
+        <f>AVERAGE(AM12:AQ12)</f>
+        <v>0.69458901280462582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.66383595691797803</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.66280033140016503</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.62696768848384399</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.66487158243579103</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.67833471416735702</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(D13:H13)</f>
+        <v>0.65936205468102693</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.68061309030654504</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.685376967688483</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.69014084507042195</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.68496271748135795</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.66735708367854096</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(K13:O13)</f>
+        <v>0.68169014084506974</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.68102734051366998</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0.681234465617232</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0.67957746478873204</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0.68951946975973399</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0.67978458989229495</v>
+      </c>
+      <c r="W13">
+        <f>AVERAGE(R13:V13)</f>
+        <v>0.68222866611433253</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0.68019884009942</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0.68682684341342104</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>0.68206296603148298</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0.686412593206296</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0.68703396851698395</v>
+      </c>
+      <c r="AD13">
+        <f>AVERAGE(Y13:AC13)</f>
+        <v>0.68450704225352077</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>0.68040596520298202</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>0.68703396851698395</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>0.68454846727423302</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>0.69159072079535999</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>0.69241922120960997</v>
+      </c>
+      <c r="AK13">
+        <f>AVERAGE(AF13:AJ13)</f>
+        <v>0.68719966859983372</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>0.68661971830985902</v>
+      </c>
+      <c r="AN13" s="6">
+        <v>0.68164871582435704</v>
+      </c>
+      <c r="AO13" s="6">
+        <v>0.67833471416735702</v>
+      </c>
+      <c r="AP13" s="6">
+        <v>0.68786246893123404</v>
+      </c>
+      <c r="AQ13" s="6">
+        <v>0.683305716652858</v>
+      </c>
+      <c r="AR13">
+        <f>AVERAGE(AM13:AQ13)</f>
+        <v>0.68355426677713305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.70095002065262202</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.66383595691797803</v>
+      </c>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.70198265179677799</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.66280033140016503</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="U25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.67699297810821901</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>2</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.62696768848384399</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="U26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.69971086327963605</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>3</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.66487158243579103</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="U27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.71334159438248601</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>4</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.67833471416735702</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="U28" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" t="s">
+        <v>8</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="4">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.70033044196612904</v>
+      </c>
+      <c r="L29" s="4">
+        <v>20</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.68061309030654504</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="4">
+        <v>20</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.70342833539859495</v>
+      </c>
+      <c r="L30" s="4">
+        <v>20</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.685376967688483</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="4">
+        <v>20</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.70280875671210197</v>
+      </c>
+      <c r="L31" s="4">
+        <v>20</v>
+      </c>
+      <c r="M31" s="5">
+        <v>2</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.69014084507042195</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="4">
+        <v>20</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.70735233374638495</v>
+      </c>
+      <c r="L32" s="4">
+        <v>20</v>
+      </c>
+      <c r="M32" s="5">
+        <v>3</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.68496271748135795</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="4">
+        <v>20</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.69062370921106897</v>
+      </c>
+      <c r="L33" s="4">
+        <v>20</v>
+      </c>
+      <c r="M33" s="5">
+        <v>4</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.66735708367854096</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="4">
+        <v>40</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.70384138785625705</v>
+      </c>
+      <c r="L34" s="4">
+        <v>40</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.68102734051366998</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="4">
+        <v>40</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.69909128459314296</v>
+      </c>
+      <c r="L35" s="4">
+        <v>40</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.681234465617232</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="4">
+        <v>40</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.69950433705080495</v>
+      </c>
+      <c r="L36" s="4">
+        <v>40</v>
+      </c>
+      <c r="M36" s="5">
+        <v>2</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.67957746478873204</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="4">
+        <v>40</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.71024370095001998</v>
+      </c>
+      <c r="L37" s="4">
+        <v>40</v>
+      </c>
+      <c r="M37" s="5">
+        <v>3</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.68951946975973399</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="4">
+        <v>40</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.70384138785625705</v>
+      </c>
+      <c r="L38" s="4">
+        <v>40</v>
+      </c>
+      <c r="M38" s="5">
+        <v>4</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.67978458989229495</v>
+      </c>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="4">
+        <v>60</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.693515076414704</v>
+      </c>
+      <c r="L39" s="4">
+        <v>60</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.68019884009942</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="4">
+        <v>60</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.69991738950846705</v>
+      </c>
+      <c r="L40" s="4">
+        <v>60</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.68682684341342104</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="4">
+        <v>60</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.70074349442379102</v>
+      </c>
+      <c r="L41" s="4">
+        <v>60</v>
+      </c>
+      <c r="M41" s="5">
+        <v>2</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.68206296603148298</v>
+      </c>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="4">
+        <v>60</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.70033044196612904</v>
+      </c>
+      <c r="L42" s="4">
+        <v>60</v>
+      </c>
+      <c r="M42" s="5">
+        <v>3</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.686412593206296</v>
+      </c>
+      <c r="R42" s="6"/>
+    </row>
+    <row r="43" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="4">
+        <v>60</v>
+      </c>
+      <c r="F43" s="5">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.70404791408508804</v>
+      </c>
+      <c r="L43" s="4">
+        <v>60</v>
+      </c>
+      <c r="M43" s="5">
+        <v>4</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.68703396851698395</v>
+      </c>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="4">
+        <v>80</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.69599339116067704</v>
+      </c>
+      <c r="L44" s="4">
+        <v>80</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.68040596520298202</v>
+      </c>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="4">
+        <v>80</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.705493597686906</v>
+      </c>
+      <c r="L45" s="4">
+        <v>80</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.68703396851698395</v>
+      </c>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="4">
+        <v>80</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.69392812887236599</v>
+      </c>
+      <c r="L46" s="4">
+        <v>80</v>
+      </c>
+      <c r="M46" s="5">
+        <v>2</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.68454846727423302</v>
+      </c>
+      <c r="R46" s="6"/>
+    </row>
+    <row r="47" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="4">
+        <v>80</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.70838496489054104</v>
+      </c>
+      <c r="L47" s="4">
+        <v>80</v>
+      </c>
+      <c r="M47" s="5">
+        <v>3</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.69159072079535999</v>
+      </c>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="4">
+        <v>80</v>
+      </c>
+      <c r="F48" s="5">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.70652622883106098</v>
+      </c>
+      <c r="L48" s="4">
+        <v>80</v>
+      </c>
+      <c r="M48" s="5">
+        <v>4</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0.69241922120960997</v>
+      </c>
+      <c r="R48" s="6"/>
+    </row>
+    <row r="49" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="4">
+        <v>100</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.69661296984717003</v>
+      </c>
+      <c r="L49" s="4">
+        <v>100</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.68661971830985902</v>
+      </c>
+      <c r="R49" s="6"/>
+    </row>
+    <row r="50" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="4">
+        <v>100</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.69785212722015699</v>
+      </c>
+      <c r="L50" s="4">
+        <v>100</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0.68164871582435704</v>
+      </c>
+    </row>
+    <row r="51" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="4">
+        <v>100</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.68835192069392803</v>
+      </c>
+      <c r="L51" s="4">
+        <v>100</v>
+      </c>
+      <c r="M51" s="5">
+        <v>2</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.67833471416735702</v>
+      </c>
+    </row>
+    <row r="52" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="4">
+        <v>100</v>
+      </c>
+      <c r="F52" s="5">
+        <v>3</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.69434118133002798</v>
+      </c>
+      <c r="L52" s="4">
+        <v>100</v>
+      </c>
+      <c r="M52" s="5">
+        <v>3</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0.68786246893123404</v>
+      </c>
+    </row>
+    <row r="53" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="4">
+        <v>100</v>
+      </c>
+      <c r="F53" s="5">
+        <v>4</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.69578686493184605</v>
+      </c>
+      <c r="L53" s="4">
+        <v>100</v>
+      </c>
+      <c r="M53" s="5">
+        <v>4</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.683305716652858</v>
+      </c>
+    </row>
+    <row r="54" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E54" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ie_test-results.xlsx
+++ b/ie_test-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\anu\comp4450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E792AB-6435-4E85-A6C8-8C826343BDB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F3B17-FCEF-4B70-90EA-6FA806B0036F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E9B88CD1-3B0D-4A75-AE61-841D3335B013}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>bert</t>
   </si>
@@ -77,6 +77,15 @@
   <si>
     <t>1958a</t>
   </si>
+  <si>
+    <t>Take these</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -107,82 +116,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2321462-3F7F-4639-8933-79D80AEC3C8E}">
-  <dimension ref="A1:AR54"/>
+  <dimension ref="A1:AR83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,6 +463,9 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
       <c r="D3">
         <v>0</v>
       </c>
@@ -537,6 +486,9 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -916,111 +868,111 @@
       <c r="D12">
         <v>0.70095002065262202</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="2">
         <v>0.70198265179677799</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="2">
         <v>0.67699297810821901</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="2">
         <v>0.69971086327963605</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="2">
         <v>0.71334159438248601</v>
       </c>
       <c r="I12">
         <f>AVERAGE(D12:H12)</f>
         <v>0.69859562164394828</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="2">
         <v>0.70033044196612904</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="2">
         <v>0.70342833539859495</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="2">
         <v>0.70280875671210197</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="2">
         <v>0.70735233374638495</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="2">
         <v>0.69062370921106897</v>
       </c>
       <c r="P12">
         <f>AVERAGE(K12:O12)</f>
         <v>0.70090871540685595</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="2">
         <v>0.70384138785625705</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="2">
         <v>0.69909128459314296</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="2">
         <v>0.69950433705080495</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="2">
         <v>0.71024370095001998</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="2">
         <v>0.70384138785625705</v>
       </c>
       <c r="W12">
         <f>AVERAGE(R12:V12)</f>
         <v>0.70330441966129642</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="2">
         <v>0.693515076414704</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="2">
         <v>0.69991738950846705</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="2">
         <v>0.70074349442379102</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="2">
         <v>0.70033044196612904</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="2">
         <v>0.70404791408508804</v>
       </c>
       <c r="AD12">
         <f>AVERAGE(Y12:AC12)</f>
         <v>0.69971086327963583</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="2">
         <v>0.69599339116067704</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="2">
         <v>0.705493597686906</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="2">
         <v>0.69392812887236599</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="2">
         <v>0.70838496489054104</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="2">
         <v>0.70652622883106098</v>
       </c>
       <c r="AK12">
         <f>AVERAGE(AF12:AJ12)</f>
         <v>0.70206526228831023</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AM12" s="2">
         <v>0.69661296984717003</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AN12" s="2">
         <v>0.69785212722015699</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AO12" s="2">
         <v>0.68835192069392803</v>
       </c>
-      <c r="AP12" s="6">
+      <c r="AP12" s="2">
         <v>0.69434118133002798</v>
       </c>
-      <c r="AQ12" s="6">
+      <c r="AQ12" s="2">
         <v>0.69578686493184605</v>
       </c>
       <c r="AR12">
@@ -1032,114 +984,114 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="2">
         <v>0.66383595691797803</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
         <v>0.66280033140016503</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="2">
         <v>0.62696768848384399</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="2">
         <v>0.66487158243579103</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="2">
         <v>0.67833471416735702</v>
       </c>
       <c r="I13">
         <f>AVERAGE(D13:H13)</f>
         <v>0.65936205468102693</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="2">
         <v>0.68061309030654504</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="2">
         <v>0.685376967688483</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="2">
         <v>0.69014084507042195</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="2">
         <v>0.68496271748135795</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="2">
         <v>0.66735708367854096</v>
       </c>
       <c r="P13">
         <f>AVERAGE(K13:O13)</f>
         <v>0.68169014084506974</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="2">
         <v>0.68102734051366998</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="2">
         <v>0.681234465617232</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="2">
         <v>0.67957746478873204</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="2">
         <v>0.68951946975973399</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="2">
         <v>0.67978458989229495</v>
       </c>
       <c r="W13">
         <f>AVERAGE(R13:V13)</f>
         <v>0.68222866611433253</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="2">
         <v>0.68019884009942</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Z13" s="2">
         <v>0.68682684341342104</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="2">
         <v>0.68206296603148298</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="2">
         <v>0.686412593206296</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="2">
         <v>0.68703396851698395</v>
       </c>
       <c r="AD13">
         <f>AVERAGE(Y13:AC13)</f>
         <v>0.68450704225352077</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="2">
         <v>0.68040596520298202</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13" s="2">
         <v>0.68703396851698395</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH13" s="2">
         <v>0.68454846727423302</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13" s="2">
         <v>0.69159072079535999</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="2">
         <v>0.69241922120960997</v>
       </c>
       <c r="AK13">
         <f>AVERAGE(AF13:AJ13)</f>
         <v>0.68719966859983372</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AM13" s="2">
         <v>0.68661971830985902</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AN13" s="2">
         <v>0.68164871582435704</v>
       </c>
-      <c r="AO13" s="6">
+      <c r="AO13" s="2">
         <v>0.67833471416735702</v>
       </c>
-      <c r="AP13" s="6">
+      <c r="AP13" s="2">
         <v>0.68786246893123404</v>
       </c>
-      <c r="AQ13" s="6">
+      <c r="AQ13" s="2">
         <v>0.683305716652858</v>
       </c>
       <c r="AR13">
@@ -1148,831 +1100,1395 @@
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="S15" s="6"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="S16" s="6"/>
-    </row>
-    <row r="17" spans="5:32" x14ac:dyDescent="0.3">
-      <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="5:32" x14ac:dyDescent="0.3">
-      <c r="S18" s="6"/>
-    </row>
-    <row r="19" spans="5:32" x14ac:dyDescent="0.3">
-      <c r="S19" s="6"/>
-    </row>
-    <row r="20" spans="5:32" x14ac:dyDescent="0.3">
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="5:32" x14ac:dyDescent="0.3">
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="5:32" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
+      <c r="S14" s="2"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-    </row>
-    <row r="24" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="1">
+        <v>0.85047501032631101</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.84799669558033797</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.81784386617100302</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.842833539859562</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.86389921520032997</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(D20:H20)</f>
+        <v>0.84460966542750882</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.84923585295332504</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.85130111524163499</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.85109458901280399</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.85522511358942499</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.83643122676579895</v>
+      </c>
+      <c r="P20">
+        <f>AVERAGE(K20:O20)</f>
+        <v>0.84865757951259757</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.84799669558033797</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.84985543163981803</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.84882280049566206</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.858736059479553</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.85109458901280399</v>
+      </c>
+      <c r="W20">
+        <f>AVERAGE(R20:V20)</f>
+        <v>0.85130111524163488</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.84138785625774404</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0.84779016935150697</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.84799669558033797</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.846757538207352</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0.85398595621643902</v>
+      </c>
+      <c r="AD20">
+        <f>AVERAGE(Y20:AC20)</f>
+        <v>0.84758364312267598</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0.84386617100371697</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.85439900867410101</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.84118133002891304</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0.85708384964890505</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0.85729037587773604</v>
+      </c>
+      <c r="AK20">
+        <f>AVERAGE(AF20:AJ20)</f>
+        <v>0.85076414704667447</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0.84242048740190001</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0.84345311854605498</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0.83994217265592697</v>
+      </c>
+      <c r="AQ20">
+        <v>0.83911606774060299</v>
+      </c>
+      <c r="AR20">
+        <f>AVERAGE(AM20:AQ20)</f>
+        <v>0.83965303593556351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.82032218091697595</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.81990912845931396</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.77240809582817005</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.81577860388269297</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.83643122676579895</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(D21:H21)</f>
+        <v>0.8129698471705904</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.84200743494423702</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.84427922346137896</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.85254027261462195</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.84427922346137896</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.82424617926476595</v>
+      </c>
+      <c r="P21">
+        <f>AVERAGE(K21:O21)</f>
+        <v>0.8414704667492765</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.83890954151177199</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.84242048740190001</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.83952912019826498</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.85398595621643902</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.84035522511358896</v>
+      </c>
+      <c r="W21">
+        <f>AVERAGE(R21:V21)</f>
+        <v>0.84304006608839299</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.84221396117306901</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.84882280049566206</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.84200743494423702</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.84779016935150697</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0.84861627426683095</v>
+      </c>
+      <c r="AD21">
+        <f>AVERAGE(Y21:AC21)</f>
+        <v>0.84589012804626118</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0.84118133002891304</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.850888062783973</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.84407269723254796</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0.85605121850474997</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0.85708384964890505</v>
+      </c>
+      <c r="AK21">
+        <f>AVERAGE(AF21:AJ21)</f>
+        <v>0.84985543163981792</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0.84717059066501399</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0.84242048740190001</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0.83828996282527801</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0.84820322180916896</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0.842627013630731</v>
+      </c>
+      <c r="AR21">
+        <f>AVERAGE(AM21:AQ21)</f>
+        <v>0.84374225526641844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.82548533663775303</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.826517967781908</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.80152829409334903</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.82424617926476595</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.83787691036761602</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(D23:H23)</f>
+        <v>0.82313093762907852</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.82486575795125905</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.82796365138372496</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.82734407269723198</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.83188764973151497</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.81515902519619898</v>
+      </c>
+      <c r="P23">
+        <f>AVERAGE(K23:O23)</f>
+        <v>0.82544403139198597</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.82837670384138695</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.82362660057827297</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.82403965303593496</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.83477901693515</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.82837670384138695</v>
+      </c>
+      <c r="W23">
+        <f>AVERAGE(R23:V23)</f>
+        <v>0.82783973564642643</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0.81805039239983401</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0.82445270549359695</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0.82527881040892104</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0.82486575795125905</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0.82858323007021895</v>
+      </c>
+      <c r="AD23">
+        <f>AVERAGE(Y23:AC23)</f>
+        <v>0.82424617926476595</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0.82052870714580695</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>0.83002891367203602</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0.818463444857496</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>0.83292028087567105</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>0.83106154481619099</v>
+      </c>
+      <c r="AK23">
+        <f>AVERAGE(AF23:AJ23)</f>
+        <v>0.82660057827344036</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>0.82114828583230004</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>0.82238744320528701</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0.81288723667905805</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>0.81887649731515899</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>0.82032218091697595</v>
+      </c>
+      <c r="AR23">
+        <f>AVERAGE(AM23:AQ23)</f>
+        <v>0.81912432878975605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.79639602319801095</v>
+      </c>
       <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.70095002065262202</v>
+        <v>0.79536039768019795</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.75952775476387702</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.79743164871582395</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.81089478044739005</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(D24:H24)</f>
+        <v>0.79192212096106007</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.81317315658657796</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0.66383595691797803</v>
-      </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
+        <v>0.81793703396851702</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.82270091135045498</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.81752278376139098</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.79991714995857499</v>
+      </c>
+      <c r="P24">
+        <f>AVERAGE(K24:O24)</f>
+        <v>0.81425020712510321</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.81358740679370301</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.81379453189726503</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.81213753106876496</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.82207953603976802</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0.81234465617232798</v>
+      </c>
+      <c r="W24">
+        <f>AVERAGE(R24:V24)</f>
+        <v>0.81478873239436589</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0.81275890637945303</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0.81938690969345396</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0.814623032311516</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0.81897265948632902</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0.81959403479701698</v>
+      </c>
+      <c r="AD24">
+        <f>AVERAGE(Y24:AC24)</f>
+        <v>0.8170671085335538</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0.81296603148301505</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>0.81959403479701698</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>0.81710853355426605</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>0.82415078707539302</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>0.824979287489643</v>
+      </c>
+      <c r="AK24">
+        <f>AVERAGE(AF24:AJ24)</f>
+        <v>0.81975973487986664</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>0.81917978458989205</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>0.81420878210439096</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0.81089478044739005</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>0.82042253521126696</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>0.81586578293289103</v>
+      </c>
+      <c r="AR24">
+        <f>AVERAGE(AM24:AQ24)</f>
+        <v>0.81611433305716619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="S25" s="2"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="5">
-        <v>0.70198265179677799</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="D27">
+        <v>0.71230896323833104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0.71045022717885098</v>
+      </c>
+    </row>
+    <row r="52" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D53" s="2">
+        <v>0.82548533663775303</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="2">
+        <v>0.79639602319801095</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="1">
+        <v>0.85047501032631101</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="1">
+        <v>0.82032218091697595</v>
+      </c>
+      <c r="O53" s="3"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D54" s="2">
+        <v>0.826517967781908</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2">
+        <v>0.79536039768019795</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="1">
+        <v>0.84799669558033797</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="1">
+        <v>0.81990912845931396</v>
+      </c>
+      <c r="O54" s="3"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D55" s="2">
+        <v>0.80152829409334903</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2">
+        <v>0.75952775476387702</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="1">
+        <v>0.81784386617100302</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="1">
+        <v>0.77240809582817005</v>
+      </c>
+      <c r="O55" s="3"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D56" s="2">
+        <v>0.82424617926476595</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2">
+        <v>0.79743164871582395</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="1">
+        <v>0.842833539859562</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="1">
+        <v>0.81577860388269297</v>
+      </c>
+      <c r="O56" s="3"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D57" s="2">
+        <v>0.83787691036761602</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2">
+        <v>0.81089478044739005</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="1">
+        <v>0.86389921520032997</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="1">
+        <v>0.83643122676579895</v>
+      </c>
+      <c r="O57" s="3"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="U57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="1">
         <v>1</v>
       </c>
-      <c r="N25" s="5">
-        <v>0.66280033140016503</v>
-      </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="U25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V25" s="1" t="s">
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W25" s="1">
+    </row>
+    <row r="58" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D58" s="2">
+        <v>0.82486575795125905</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2">
+        <v>0.81317315658657796</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="1">
+        <v>0.84923585295332504</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="1">
+        <v>0.84200743494423702</v>
+      </c>
+      <c r="O58" s="3"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="U58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
         <v>1</v>
       </c>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1">
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
         <v>1</v>
       </c>
-      <c r="Z25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1">
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D59" s="2">
+        <v>0.82796365138372496</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2">
+        <v>0.81793703396851702</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="1">
+        <v>0.85130111524163499</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="1">
+        <v>0.84427922346137896</v>
+      </c>
+      <c r="O59" s="3"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="U59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="1">
         <v>1</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
         <v>1</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
         <v>1</v>
       </c>
-      <c r="AE25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D60" s="2">
+        <v>0.82734407269723198</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2">
+        <v>0.82270091135045498</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="1">
+        <v>0.85109458901280399</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="1">
+        <v>0.85254027261462195</v>
+      </c>
+      <c r="O60" s="3"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="U60" t="s">
+        <v>13</v>
+      </c>
+      <c r="V60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.67699297810821901</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0</v>
-      </c>
-      <c r="M26" s="5">
-        <v>2</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0.62696768848384399</v>
-      </c>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="U26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="1">
+      <c r="W60">
         <v>1</v>
       </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1">
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
         <v>1</v>
       </c>
-      <c r="AC26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="1" t="s">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>3</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.69971086327963605</v>
-      </c>
-      <c r="L27" s="4">
-        <v>0</v>
-      </c>
-      <c r="M27" s="5">
-        <v>3</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0.66487158243579103</v>
-      </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="U27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W27" s="1">
-        <v>1</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>4</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.71334159438248601</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5">
-        <v>4</v>
-      </c>
-      <c r="N28" s="5">
-        <v>0.67833471416735702</v>
-      </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="U28" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" t="s">
-        <v>8</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>1</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="4">
-        <v>20</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.70033044196612904</v>
-      </c>
-      <c r="L29" s="4">
-        <v>20</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0.68061309030654504</v>
-      </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-    </row>
-    <row r="30" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="4">
-        <v>20</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0.70342833539859495</v>
-      </c>
-      <c r="L30" s="4">
-        <v>20</v>
-      </c>
-      <c r="M30" s="5">
-        <v>1</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0.685376967688483</v>
-      </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-    </row>
-    <row r="31" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="4">
-        <v>20</v>
-      </c>
-      <c r="F31" s="5">
-        <v>2</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0.70280875671210197</v>
-      </c>
-      <c r="L31" s="4">
-        <v>20</v>
-      </c>
-      <c r="M31" s="5">
-        <v>2</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0.69014084507042195</v>
-      </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-    </row>
-    <row r="32" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="4">
-        <v>20</v>
-      </c>
-      <c r="F32" s="5">
-        <v>3</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0.70735233374638495</v>
-      </c>
-      <c r="L32" s="4">
-        <v>20</v>
-      </c>
-      <c r="M32" s="5">
-        <v>3</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0.68496271748135795</v>
-      </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-    </row>
-    <row r="33" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="4">
-        <v>20</v>
-      </c>
-      <c r="F33" s="5">
-        <v>4</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0.69062370921106897</v>
-      </c>
-      <c r="L33" s="4">
-        <v>20</v>
-      </c>
-      <c r="M33" s="5">
-        <v>4</v>
-      </c>
-      <c r="N33" s="5">
-        <v>0.66735708367854096</v>
-      </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-    </row>
-    <row r="34" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="4">
-        <v>40</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.70384138785625705</v>
-      </c>
-      <c r="L34" s="4">
-        <v>40</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
-        <v>0.68102734051366998</v>
-      </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-    </row>
-    <row r="35" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="4">
-        <v>40</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0.69909128459314296</v>
-      </c>
-      <c r="L35" s="4">
-        <v>40</v>
-      </c>
-      <c r="M35" s="5">
-        <v>1</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0.681234465617232</v>
-      </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-    </row>
-    <row r="36" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E36" s="4">
-        <v>40</v>
-      </c>
-      <c r="F36" s="5">
-        <v>2</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0.69950433705080495</v>
-      </c>
-      <c r="L36" s="4">
-        <v>40</v>
-      </c>
-      <c r="M36" s="5">
-        <v>2</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0.67957746478873204</v>
-      </c>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-    </row>
-    <row r="37" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="4">
-        <v>40</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0.71024370095001998</v>
-      </c>
-      <c r="L37" s="4">
-        <v>40</v>
-      </c>
-      <c r="M37" s="5">
-        <v>3</v>
-      </c>
-      <c r="N37" s="5">
-        <v>0.68951946975973399</v>
-      </c>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-    </row>
-    <row r="38" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="4">
-        <v>40</v>
-      </c>
-      <c r="F38" s="5">
-        <v>4</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0.70384138785625705</v>
-      </c>
-      <c r="L38" s="4">
-        <v>40</v>
-      </c>
-      <c r="M38" s="5">
-        <v>4</v>
-      </c>
-      <c r="N38" s="5">
-        <v>0.67978458989229495</v>
-      </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-    </row>
-    <row r="39" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="4">
-        <v>60</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0.693515076414704</v>
-      </c>
-      <c r="L39" s="4">
-        <v>60</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0.68019884009942</v>
-      </c>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-    </row>
-    <row r="40" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="4">
-        <v>60</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0.69991738950846705</v>
-      </c>
-      <c r="L40" s="4">
-        <v>60</v>
-      </c>
-      <c r="M40" s="5">
-        <v>1</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0.68682684341342104</v>
-      </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-    </row>
-    <row r="41" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="4">
-        <v>60</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0.70074349442379102</v>
-      </c>
-      <c r="L41" s="4">
-        <v>60</v>
-      </c>
-      <c r="M41" s="5">
-        <v>2</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0.68206296603148298</v>
-      </c>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E42" s="4">
-        <v>60</v>
-      </c>
-      <c r="F42" s="5">
-        <v>3</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.70033044196612904</v>
-      </c>
-      <c r="L42" s="4">
-        <v>60</v>
-      </c>
-      <c r="M42" s="5">
-        <v>3</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0.686412593206296</v>
-      </c>
-      <c r="R42" s="6"/>
-    </row>
-    <row r="43" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E43" s="4">
-        <v>60</v>
-      </c>
-      <c r="F43" s="5">
-        <v>4</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0.70404791408508804</v>
-      </c>
-      <c r="L43" s="4">
-        <v>60</v>
-      </c>
-      <c r="M43" s="5">
-        <v>4</v>
-      </c>
-      <c r="N43" s="5">
-        <v>0.68703396851698395</v>
-      </c>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="44" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E44" s="4">
-        <v>80</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0.69599339116067704</v>
-      </c>
-      <c r="L44" s="4">
-        <v>80</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0.68040596520298202</v>
-      </c>
-      <c r="R44" s="6"/>
-    </row>
-    <row r="45" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E45" s="4">
-        <v>80</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0.705493597686906</v>
-      </c>
-      <c r="L45" s="4">
-        <v>80</v>
-      </c>
-      <c r="M45" s="5">
-        <v>1</v>
-      </c>
-      <c r="N45" s="5">
-        <v>0.68703396851698395</v>
-      </c>
-      <c r="R45" s="6"/>
-    </row>
-    <row r="46" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E46" s="4">
-        <v>80</v>
-      </c>
-      <c r="F46" s="5">
-        <v>2</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0.69392812887236599</v>
-      </c>
-      <c r="L46" s="4">
-        <v>80</v>
-      </c>
-      <c r="M46" s="5">
-        <v>2</v>
-      </c>
-      <c r="N46" s="5">
-        <v>0.68454846727423302</v>
-      </c>
-      <c r="R46" s="6"/>
-    </row>
-    <row r="47" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E47" s="4">
-        <v>80</v>
-      </c>
-      <c r="F47" s="5">
-        <v>3</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0.70838496489054104</v>
-      </c>
-      <c r="L47" s="4">
-        <v>80</v>
-      </c>
-      <c r="M47" s="5">
-        <v>3</v>
-      </c>
-      <c r="N47" s="5">
-        <v>0.69159072079535999</v>
-      </c>
-      <c r="R47" s="6"/>
-    </row>
-    <row r="48" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E48" s="4">
-        <v>80</v>
-      </c>
-      <c r="F48" s="5">
-        <v>4</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0.70652622883106098</v>
-      </c>
-      <c r="L48" s="4">
-        <v>80</v>
-      </c>
-      <c r="M48" s="5">
-        <v>4</v>
-      </c>
-      <c r="N48" s="5">
-        <v>0.69241922120960997</v>
-      </c>
-      <c r="R48" s="6"/>
-    </row>
-    <row r="49" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E49" s="4">
-        <v>100</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0.69661296984717003</v>
-      </c>
-      <c r="L49" s="4">
-        <v>100</v>
-      </c>
-      <c r="M49" s="5">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5">
-        <v>0.68661971830985902</v>
-      </c>
-      <c r="R49" s="6"/>
-    </row>
-    <row r="50" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E50" s="4">
-        <v>100</v>
-      </c>
-      <c r="F50" s="5">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0.69785212722015699</v>
-      </c>
-      <c r="L50" s="4">
-        <v>100</v>
-      </c>
-      <c r="M50" s="5">
-        <v>1</v>
-      </c>
-      <c r="N50" s="5">
-        <v>0.68164871582435704</v>
-      </c>
-    </row>
-    <row r="51" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E51" s="4">
-        <v>100</v>
-      </c>
-      <c r="F51" s="5">
-        <v>2</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0.68835192069392803</v>
-      </c>
-      <c r="L51" s="4">
-        <v>100</v>
-      </c>
-      <c r="M51" s="5">
-        <v>2</v>
-      </c>
-      <c r="N51" s="5">
-        <v>0.67833471416735702</v>
-      </c>
-    </row>
-    <row r="52" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E52" s="4">
-        <v>100</v>
-      </c>
-      <c r="F52" s="5">
-        <v>3</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0.69434118133002798</v>
-      </c>
-      <c r="L52" s="4">
-        <v>100</v>
-      </c>
-      <c r="M52" s="5">
-        <v>3</v>
-      </c>
-      <c r="N52" s="5">
-        <v>0.68786246893123404</v>
-      </c>
-    </row>
-    <row r="53" spans="5:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E53" s="4">
-        <v>100</v>
-      </c>
-      <c r="F53" s="5">
-        <v>4</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0.69578686493184605</v>
-      </c>
-      <c r="L53" s="4">
-        <v>100</v>
-      </c>
-      <c r="M53" s="5">
-        <v>4</v>
-      </c>
-      <c r="N53" s="5">
-        <v>0.683305716652858</v>
-      </c>
-    </row>
-    <row r="54" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E54" s="1"/>
+    <row r="61" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D61" s="2">
+        <v>0.83188764973151497</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2">
+        <v>0.81752278376139098</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="1">
+        <v>0.85522511358942499</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="1">
+        <v>0.84427922346137896</v>
+      </c>
+      <c r="O61" s="3"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D62" s="2">
+        <v>0.81515902519619898</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2">
+        <v>0.79991714995857499</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="1">
+        <v>0.83643122676579895</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="1">
+        <v>0.82424617926476595</v>
+      </c>
+      <c r="O62" s="3"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D63" s="2">
+        <v>0.82837670384138695</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2">
+        <v>0.81358740679370301</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="1">
+        <v>0.84799669558033797</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="1">
+        <v>0.83890954151177199</v>
+      </c>
+      <c r="O63" s="3"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D64" s="2">
+        <v>0.82362660057827297</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2">
+        <v>0.81379453189726503</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="1">
+        <v>0.84985543163981803</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="1">
+        <v>0.84242048740190001</v>
+      </c>
+      <c r="O64" s="3"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D65" s="2">
+        <v>0.82403965303593496</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2">
+        <v>0.81213753106876496</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="1">
+        <v>0.84882280049566206</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="1">
+        <v>0.83952912019826498</v>
+      </c>
+      <c r="O65" s="3"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D66" s="2">
+        <v>0.83477901693515</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2">
+        <v>0.82207953603976802</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="1">
+        <v>0.858736059479553</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="1">
+        <v>0.85398595621643902</v>
+      </c>
+      <c r="O66" s="3"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D67" s="2">
+        <v>0.82837670384138695</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2">
+        <v>0.81234465617232798</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="1">
+        <v>0.85109458901280399</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="1">
+        <v>0.84035522511358896</v>
+      </c>
+      <c r="O67" s="3"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D68" s="2">
+        <v>0.81805039239983401</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2">
+        <v>0.81275890637945303</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="1">
+        <v>0.84138785625774404</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="1">
+        <v>0.84221396117306901</v>
+      </c>
+      <c r="O68" s="3"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D69" s="2">
+        <v>0.82445270549359695</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2">
+        <v>0.81938690969345396</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="1">
+        <v>0.84779016935150697</v>
+      </c>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="1">
+        <v>0.84882280049566206</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D70" s="2">
+        <v>0.82527881040892104</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2">
+        <v>0.814623032311516</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="1">
+        <v>0.84799669558033797</v>
+      </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="1">
+        <v>0.84200743494423702</v>
+      </c>
+      <c r="O70" s="3"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D71" s="2">
+        <v>0.82486575795125905</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2">
+        <v>0.81897265948632902</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="1">
+        <v>0.846757538207352</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="1">
+        <v>0.84779016935150697</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D72" s="2">
+        <v>0.82858323007021895</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2">
+        <v>0.81959403479701698</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="1">
+        <v>0.85398595621643902</v>
+      </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="1">
+        <v>0.84861627426683095</v>
+      </c>
+      <c r="O72" s="3"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D73" s="2">
+        <v>0.82052870714580695</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2">
+        <v>0.81296603148301505</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="1">
+        <v>0.84386617100371697</v>
+      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="1">
+        <v>0.84118133002891304</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="R73" s="2"/>
+    </row>
+    <row r="74" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D74" s="2">
+        <v>0.83002891367203602</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2">
+        <v>0.81959403479701698</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="1">
+        <v>0.85439900867410101</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="1">
+        <v>0.850888062783973</v>
+      </c>
+      <c r="O74" s="3"/>
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D75" s="2">
+        <v>0.818463444857496</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2">
+        <v>0.81710853355426605</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="1">
+        <v>0.84118133002891304</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="1">
+        <v>0.84407269723254796</v>
+      </c>
+      <c r="O75" s="3"/>
+      <c r="R75" s="2"/>
+    </row>
+    <row r="76" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D76" s="2">
+        <v>0.83292028087567105</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2">
+        <v>0.82415078707539302</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="1">
+        <v>0.85708384964890505</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="1">
+        <v>0.85605121850474997</v>
+      </c>
+      <c r="O76" s="3"/>
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D77" s="2">
+        <v>0.83106154481619099</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2">
+        <v>0.824979287489643</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="1">
+        <v>0.85729037587773604</v>
+      </c>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="1">
+        <v>0.85708384964890505</v>
+      </c>
+      <c r="O77" s="3"/>
+      <c r="R77" s="2"/>
+    </row>
+    <row r="78" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D78" s="2">
+        <v>0.82114828583230004</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2">
+        <v>0.81917978458989205</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="1">
+        <v>0.84242048740190001</v>
+      </c>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="1">
+        <v>0.84717059066501399</v>
+      </c>
+      <c r="O78" s="3"/>
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D79" s="2">
+        <v>0.82238744320528701</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2">
+        <v>0.81420878210439096</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="1">
+        <v>0.84345311854605498</v>
+      </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="1">
+        <v>0.84242048740190001</v>
+      </c>
+      <c r="O79" s="3"/>
+      <c r="R79" s="2"/>
+    </row>
+    <row r="80" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D80" s="2">
+        <v>0.81288723667905805</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2">
+        <v>0.81089478044739005</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="1">
+        <v>0.83828996282527801</v>
+      </c>
+      <c r="O80" s="3"/>
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D81" s="2">
+        <v>0.81887649731515899</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2">
+        <v>0.82042253521126696</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="1">
+        <v>0.83994217265592697</v>
+      </c>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="1">
+        <v>0.84820322180916896</v>
+      </c>
+      <c r="O81" s="3"/>
+      <c r="R81" s="2"/>
+    </row>
+    <row r="82" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D82" s="2">
+        <v>0.82032218091697595</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2">
+        <v>0.81586578293289103</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82">
+        <v>0.83911606774060299</v>
+      </c>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="1">
+        <v>0.842627013630731</v>
+      </c>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
